--- a/data/input/absenteeism_data_41.xlsx
+++ b/data/input/absenteeism_data_41.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78557</v>
+        <v>58191</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Maitê Moreira</t>
+          <t>Ana Clara Oliveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>5195.94</v>
+        <v>9020.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67326</v>
+        <v>92980</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eduardo Azevedo</t>
+          <t>Dr. Vinicius Jesus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>8912.09</v>
+        <v>4578.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18635</v>
+        <v>28691</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daniel Fogaça</t>
+          <t>Ana Lívia Alves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>5423.69</v>
+        <v>5435.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56362</v>
+        <v>11570</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Caio Viana</t>
+          <t>Vitor Hugo Souza</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,187 +581,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>3674.93</v>
+        <v>7685.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28206</v>
+        <v>9880</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Renan Monteiro</t>
+          <t>Daniela Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>11161.21</v>
+        <v>4199.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35071</v>
+        <v>15574</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leandro Gonçalves</t>
+          <t>Maria Luiza Vieira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>7456.33</v>
+        <v>4049.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>217</v>
+        <v>23628</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alice Peixoto</t>
+          <t>Stephany Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>4852.82</v>
+        <v>10784.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15389</v>
+        <v>4365</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lorena Nunes</t>
+          <t>Maria Fernanda Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>3255.08</v>
+        <v>4575.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35220</v>
+        <v>95373</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rodrigo da Rocha</t>
+          <t>Isabelly Silveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>6353.51</v>
+        <v>8054.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77542</v>
+        <v>9757</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Maria Sophia Oliveira</t>
+          <t>Dr. Francisco Lopes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>3546.64</v>
+        <v>8084.98</v>
       </c>
     </row>
   </sheetData>
